--- a/resources/portals.xlsx
+++ b/resources/portals.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tecnova\OneDrive\Mine\document-types-dependency\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tecnova\OneDrive\Mine\dependency-document-types\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D9E104-3F64-4FC9-83B1-076366A55ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4093A617-08B6-464B-9F0E-3B5993A5F6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DC58811-3100-4723-8A47-51BC9F49FBED}"/>
   </bookViews>
@@ -1246,9 +1246,6 @@
     <t>Recibo de conformidad</t>
   </si>
   <si>
-    <t>Cedula de identidad</t>
-  </si>
-  <si>
     <t>Poliza</t>
   </si>
   <si>
@@ -1304,6 +1301,9 @@
   </si>
   <si>
     <t>NO, a menos que el liquidador los solicite, entonces el formulario enviado al cliente obligara a subirlo LAGL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voucher alcotest </t>
   </si>
 </sst>
 </file>
@@ -1787,7 +1787,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E250" sqref="E250"/>
+      <selection pane="topRight" activeCell="F254" sqref="F254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3917,7 +3917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>10</v>
       </c>
@@ -3929,19 +3929,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B155" s="4"/>
       <c r="C155" s="3" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="D155" t="s">
         <v>27</v>
       </c>
-      <c r="E155" t="s">
-        <v>202</v>
+      <c r="E155" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3959,7 +3959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>129</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>129</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>129</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>129</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="161" spans="1:7" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>129</v>
       </c>
@@ -4821,12 +4821,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
         <v>181</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="D220" t="s">
         <v>25</v>
@@ -4838,15 +4838,15 @@
         <v>9</v>
       </c>
       <c r="G220" t="s">
-        <v>179</v>
+        <v>53</v>
       </c>
     </row>
     <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C221" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="D221" t="s">
         <v>12</v>
@@ -4854,10 +4854,10 @@
     </row>
     <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C222" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="D222" t="s">
         <v>27</v>
@@ -4868,10 +4868,10 @@
     </row>
     <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C223" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="D223" t="s">
         <v>86</v>
@@ -4882,10 +4882,10 @@
     </row>
     <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C224" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="D224" t="s">
         <v>77</v>
@@ -4896,7 +4896,7 @@
     </row>
     <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>125</v>
@@ -4911,10 +4911,10 @@
     </row>
     <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D226" t="s">
         <v>60</v>
@@ -4925,21 +4925,21 @@
     </row>
     <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D227" t="s">
         <v>186</v>
-      </c>
-      <c r="C227" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D227" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>20</v>
@@ -4950,10 +4950,10 @@
     </row>
     <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>20</v>
@@ -4964,10 +4964,10 @@
     </row>
     <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>20</v>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B231" s="7">
         <v>1</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B232" s="7">
         <v>2</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B233" s="7">
         <v>4</v>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B234" s="7">
         <v>5</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B235" s="7">
         <v>82</v>
@@ -5048,10 +5048,10 @@
     </row>
     <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D236" s="5" t="s">
         <v>20</v>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D237" s="5" t="s">
         <v>20</v>
@@ -5076,10 +5076,10 @@
     </row>
     <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>20</v>
@@ -5107,7 +5107,7 @@
         <v>10</v>
       </c>
       <c r="C240" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D240" t="s">
         <v>12</v>
@@ -5121,7 +5121,7 @@
         <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D241" t="s">
         <v>7</v>
@@ -5135,7 +5135,7 @@
         <v>7</v>
       </c>
       <c r="C242" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D242" t="s">
         <v>7</v>
@@ -5149,7 +5149,7 @@
         <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D243" t="s">
         <v>7</v>
@@ -5163,7 +5163,7 @@
         <v>7</v>
       </c>
       <c r="C244" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D244" t="s">
         <v>7</v>
@@ -5177,7 +5177,7 @@
         <v>7</v>
       </c>
       <c r="C245" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D245" t="s">
         <v>7</v>
@@ -5191,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="C246" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D246" t="s">
         <v>7</v>
@@ -5205,7 +5205,7 @@
         <v>7</v>
       </c>
       <c r="C247" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D247" t="s">
         <v>7</v>
@@ -5219,7 +5219,7 @@
         <v>7</v>
       </c>
       <c r="C248" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D248" t="s">
         <v>7</v>
@@ -5246,7 +5246,7 @@
   <autoFilter ref="A1:G249" xr:uid="{030E9699-145C-4EC8-B54C-AAF5E31C4F71}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Voucher alcotest"/>
+        <filter val="Cedula de Identidad"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/resources/portals.xlsx
+++ b/resources/portals.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tecnova\OneDrive\Mine\dependency-document-types\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4093A617-08B6-464B-9F0E-3B5993A5F6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EE098D-325E-46BA-A5D8-E0D74A20A32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DC58811-3100-4723-8A47-51BC9F49FBED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Itemtypes CM - Detallado (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="Itemtypes CM - Detallado" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Itemtypes CM - Detallado (2)'!$A$1:$G$249</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Itemtypes CM - Detallado'!$A$1:$O$248</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,10 +42,59 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tecnova</author>
-    <author>tc={C196B5F9-2C25-44E1-A15F-E5D9B711F44A}</author>
+    <author>tc={4CF2CEB8-F22D-4D9D-9D67-017CD4F86D13}</author>
+    <author>tc={F11DF466-965D-4C85-9C49-EC98F3926762}</author>
   </authors>
   <commentList>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{877AA189-CA47-4F98-B0C3-EE6B1488580D}">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{0EE5A931-63DE-4F4C-A19C-41056C79942A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>tecnova:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+No hay validacion de que el documento sea de quien dice ser</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{E04DBBFD-994D-46A0-8BD5-C7E2EE7ED426}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>tecnova:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar con equipo de PT Robo, si utilizan documentos del GD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{E1A923F3-8FA6-41F3-8274-3ED5ABF4559B}">
       <text>
         <r>
           <rPr>
@@ -70,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{0D38274E-0366-4793-9DD2-D371E3144635}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{87BAB092-CD65-4D12-94D8-A03AE2664A17}">
       <text>
         <r>
           <rPr>
@@ -94,7 +143,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{8890E9FE-C2C0-4385-8878-AC5C9C6F0255}">
+    <comment ref="M15" authorId="0" shapeId="0" xr:uid="{EEEBD755-99A4-4946-AFB5-81619C6F0F9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>tecnova:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Consultar con equipo de PT Robo, si utilizan documentos del GD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{B8E35381-7B3D-4D41-A044-8239DFD33481}">
       <text>
         <r>
           <rPr>
@@ -118,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{0105B172-BC50-40B7-8D5A-F83350903CE8}">
+    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{BE2622C0-2EE3-4A3F-8224-06B193E28570}">
       <text>
         <r>
           <rPr>
@@ -142,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{9E2373E2-0F98-47E8-AB1C-9C9D50742D2E}">
+    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{D3E6201E-CFCE-4C6A-8074-AD395B114F84}">
       <text>
         <r>
           <rPr>
@@ -166,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{24948576-BAA3-40C5-89BB-980AE845950E}">
+    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{30C8BBFC-6F73-426F-966B-B9714F029AD1}">
       <text>
         <r>
           <rPr>
@@ -190,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D94" authorId="0" shapeId="0" xr:uid="{40D092D2-CAAA-4F70-8EBA-74EF568AFD44}">
+    <comment ref="D94" authorId="0" shapeId="0" xr:uid="{9364543C-6607-4609-998D-3F985294A528}">
       <text>
         <r>
           <rPr>
@@ -214,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D97" authorId="0" shapeId="0" xr:uid="{AA3CD984-943C-41CE-AFCA-036ABECAC1C1}">
+    <comment ref="D97" authorId="0" shapeId="0" xr:uid="{C5ECC858-CA00-40ED-8BFE-887B5FE12053}">
       <text>
         <r>
           <rPr>
@@ -238,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D100" authorId="0" shapeId="0" xr:uid="{159CA0BD-14B6-436B-B9EE-4F372128136D}">
+    <comment ref="D100" authorId="0" shapeId="0" xr:uid="{AA7296EF-3377-4333-8627-8D8830DDC8DC}">
       <text>
         <r>
           <rPr>
@@ -262,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D103" authorId="0" shapeId="0" xr:uid="{2CD6622A-B693-4734-99D3-669A06B2BBA2}">
+    <comment ref="D103" authorId="0" shapeId="0" xr:uid="{851C2ADE-A8F4-43DC-A6E5-7336BC27FD8E}">
       <text>
         <r>
           <rPr>
@@ -286,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{A0D78C05-D6FD-4FFC-9182-D297BA4377EA}">
+    <comment ref="D128" authorId="0" shapeId="0" xr:uid="{036FA7BD-9398-4A5E-B1DF-CCFA8E19D93F}">
       <text>
         <r>
           <rPr>
@@ -310,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C130" authorId="0" shapeId="0" xr:uid="{1CEC1908-D2B5-4528-8A49-2E8C618A3457}">
+    <comment ref="C130" authorId="0" shapeId="0" xr:uid="{F0872588-2BA2-4741-A6DE-D8CA79FC7B49}">
       <text>
         <r>
           <rPr>
@@ -334,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C131" authorId="0" shapeId="0" xr:uid="{4AD79AFA-1444-4838-87EE-09CB1219D50F}">
+    <comment ref="C131" authorId="0" shapeId="0" xr:uid="{3002858C-0E54-4B5E-8607-F5C10F1DDEBE}">
       <text>
         <r>
           <rPr>
@@ -358,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C132" authorId="0" shapeId="0" xr:uid="{F9B3A776-EE23-4B75-9993-BA3BBA7EDDBE}">
+    <comment ref="C132" authorId="0" shapeId="0" xr:uid="{0107D8B7-0F61-4AC9-9D39-767265436E48}">
       <text>
         <r>
           <rPr>
@@ -382,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D147" authorId="0" shapeId="0" xr:uid="{1694F344-6C82-4941-BE8C-15CF6AE72024}">
+    <comment ref="D147" authorId="0" shapeId="0" xr:uid="{AED483DA-4D9F-4805-875D-6D5A31274E23}">
       <text>
         <r>
           <rPr>
@@ -406,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D149" authorId="0" shapeId="0" xr:uid="{084DBF47-B8D6-42D7-A846-951276BC45E0}">
+    <comment ref="D149" authorId="0" shapeId="0" xr:uid="{2A474A83-0AC5-4824-ACEC-C3EF40EB3BFF}">
       <text>
         <r>
           <rPr>
@@ -430,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D176" authorId="0" shapeId="0" xr:uid="{6F7522C8-4F1A-4322-9872-EA3250A6DD32}">
+    <comment ref="D175" authorId="0" shapeId="0" xr:uid="{98301C25-199F-4604-8930-190BF6C1798A}">
       <text>
         <r>
           <rPr>
@@ -454,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D183" authorId="0" shapeId="0" xr:uid="{E91F1571-E7C7-448D-ACE2-1484E74FDFED}">
+    <comment ref="D182" authorId="0" shapeId="0" xr:uid="{3FC908B8-800A-4477-AE11-62D9FE299931}">
       <text>
         <r>
           <rPr>
@@ -478,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D184" authorId="0" shapeId="0" xr:uid="{841A931F-ADBF-48E9-9990-C8572A0B1F07}">
+    <comment ref="D183" authorId="0" shapeId="0" xr:uid="{C2D40E7C-8DC3-4B5B-A184-A95AB5115F41}">
       <text>
         <r>
           <rPr>
@@ -502,7 +575,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="D185" authorId="0" shapeId="0" xr:uid="{22340D87-E7C7-43FF-86DD-9E59C9EE6EE5}">
+    <comment ref="F183" authorId="1" shapeId="0" xr:uid="{4CF2CEB8-F22D-4D9D-9D67-017CD4F86D13}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Ver cuando es que se esta usando este document type pero con el item type siniestro</t>
+      </text>
+    </comment>
+    <comment ref="D184" authorId="0" shapeId="0" xr:uid="{0374FCEF-12F4-40FE-9610-C81A1C303FCC}">
       <text>
         <r>
           <rPr>
@@ -526,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D186" authorId="0" shapeId="0" xr:uid="{2E8E04D5-FD23-4CD8-8870-3037A4CD2C60}">
+    <comment ref="D185" authorId="0" shapeId="0" xr:uid="{EE9A7691-992C-41F7-BCA0-F8AD2974091A}">
       <text>
         <r>
           <rPr>
@@ -550,7 +631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D194" authorId="0" shapeId="0" xr:uid="{60C87E6C-E7DF-4B01-AC9C-8B9FE4B86CAC}">
+    <comment ref="D193" authorId="0" shapeId="0" xr:uid="{F4DFEC2F-3B38-464B-B4B0-8C3A831EFCF2}">
       <text>
         <r>
           <rPr>
@@ -574,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D195" authorId="0" shapeId="0" xr:uid="{18CF7BAD-93B6-40D4-A962-B6583258CE4C}">
+    <comment ref="D194" authorId="0" shapeId="0" xr:uid="{36463C49-3EB5-4473-A79B-2053D14F8B0B}">
       <text>
         <r>
           <rPr>
@@ -598,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D196" authorId="0" shapeId="0" xr:uid="{34DF6D93-5651-40F3-9A3F-FA7ECD590C35}">
+    <comment ref="D195" authorId="0" shapeId="0" xr:uid="{3C60DB8F-CB5E-4639-A4EF-DD133516540D}">
       <text>
         <r>
           <rPr>
@@ -622,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D198" authorId="0" shapeId="0" xr:uid="{5155FA3F-0E65-429A-9846-55130AB1FA4D}">
+    <comment ref="D197" authorId="0" shapeId="0" xr:uid="{C3B440BF-B37D-4757-8CEE-43C4E375044A}">
       <text>
         <r>
           <rPr>
@@ -656,7 +737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C208" authorId="0" shapeId="0" xr:uid="{B3FA962A-3FDB-4537-8944-83A613B6700B}">
+    <comment ref="C207" authorId="0" shapeId="0" xr:uid="{63C52B67-7B62-401B-AB36-F355A84D0289}">
       <text>
         <r>
           <rPr>
@@ -680,7 +761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C218" authorId="1" shapeId="0" xr:uid="{C196B5F9-2C25-44E1-A15F-E5D9B711F44A}">
+    <comment ref="C217" authorId="2" shapeId="0" xr:uid="{F11DF466-965D-4C85-9C49-EC98F3926762}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -693,7 +774,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="282">
   <si>
     <t>ItemType(AS IS)</t>
   </si>
@@ -1089,16 +1170,9 @@
     <t>Cedula de Identidad</t>
   </si>
   <si>
-    <t>NO, a menos que el liquidador los 
-solicite, entonces el formulario enviado al cliente obligara a subirlo.</t>
-  </si>
-  <si>
     <t>Denuncio</t>
   </si>
   <si>
-    <t>Web liquidacion</t>
-  </si>
-  <si>
     <t>Cedula de Identidad Reverso</t>
   </si>
   <si>
@@ -1300,10 +1374,268 @@
     <t>Parte Policial (Hallazgo)</t>
   </si>
   <si>
-    <t>NO, a menos que el liquidador los solicite, entonces el formulario enviado al cliente obligara a subirlo LAGL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voucher alcotest </t>
+    <t>Uso en la plataforma</t>
+  </si>
+  <si>
+    <t>Tipo ejecucion</t>
+  </si>
+  <si>
+    <t>Documento de quien es?(Asegurado, conductor, liquidador, etc)</t>
+  </si>
+  <si>
+    <t>Orden de subida del documento</t>
+  </si>
+  <si>
+    <t>Flujo(Para Gestor Documental)</t>
+  </si>
+  <si>
+    <t>Si existe, que sistema subio este documento?(Gestor Documental)</t>
+  </si>
+  <si>
+    <t>Ojo</t>
+  </si>
+  <si>
+    <t>Sistemas con los que interectua</t>
+  </si>
+  <si>
+    <t>Insercion / Consulta</t>
+  </si>
+  <si>
+    <t>NO DISCRIMINA</t>
+  </si>
+  <si>
+    <t>NO SE SABE</t>
+  </si>
+  <si>
+    <t>Carga de documentos por 
+parte del liquidador oficial</t>
+  </si>
+  <si>
+    <t>Asegurado</t>
+  </si>
+  <si>
+    <t>Daño, Robo con Hallazgo, Denuncio Robo, 
+PT Daño, PT Robo con hallazgo, PT Robo, Tercero, Robo con hallazgo cliente, Indemnizacion</t>
+  </si>
+  <si>
+    <t>SI( Identificador del sistema)</t>
+  </si>
+  <si>
+    <t>Acreedor</t>
+  </si>
+  <si>
+    <t>NO SE DISCRIMINA</t>
+  </si>
+  <si>
+    <t>Consulta</t>
+  </si>
+  <si>
+    <t>No discrimina</t>
+  </si>
+  <si>
+    <t>PT Robo con hallazgo, PT Daño, Denuncio Robo, PT Robo</t>
+  </si>
+  <si>
+    <t>Perdida Total(Probablemente)</t>
+  </si>
+  <si>
+    <t>El proveedor asocia esos documentos para poder luego emitir la factura.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>NINGUNO</t>
+  </si>
+  <si>
+    <t>Asociar los docuemntos al siniestro.</t>
+  </si>
+  <si>
+    <t>Vehiculo siniestrado</t>
+  </si>
+  <si>
+    <t>no se esta seguro</t>
+  </si>
+  <si>
+    <t>Robo con hallazgo, PT Robo, PT Robo con 
+hallazgo, PT Daño, Denuncio robo</t>
+  </si>
+  <si>
+    <t>Daño, Robo con hallazgo</t>
+  </si>
+  <si>
+    <t>No se sabe</t>
+  </si>
+  <si>
+    <t>Asegurado y tercero</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Vehiuclo siniestrado</t>
+  </si>
+  <si>
+    <t>Robo con hallazgo, PT Robo, PT Robo con hallazgo, Denuncio robo, Robo con hallazgo cliente</t>
+  </si>
+  <si>
+    <t>SI = Robo con hallazgo, PT Robo con hallazgo, Denuncio Robo, Robo con hallazgo cliente, Tercero.
+NO = Daño, PT Daño, Indemnizacion</t>
+  </si>
+  <si>
+    <t>Daño, PT Daño, Indemnizacion, Tercero</t>
+  </si>
+  <si>
+    <t>Conductor</t>
+  </si>
+  <si>
+    <t>Los solicita a pesar que ya fueron 
+pedidos en el portal de Denuncios</t>
+  </si>
+  <si>
+    <t>Tercero</t>
+  </si>
+  <si>
+    <t>ahora se usa el item type taller, 
+pero es lo relacionado al taller</t>
+  </si>
+  <si>
+    <t>Son cargados por el liquidador para su revisión en la web por un 
+analista(Fotos, Preliminares, Prefactura, Recupero legal, Recupero material, Preliminar Final)</t>
+  </si>
+  <si>
+    <t>Insercion / Consulta / Eliminacion</t>
+  </si>
+  <si>
+    <t>Liquidador</t>
+  </si>
+  <si>
+    <t>Comprobante generado por WP 
+e imágenes adjuntas al realizar ingreso</t>
+  </si>
+  <si>
+    <t>Fotos adicionales, circulación 
+y vehículos espera en taller</t>
+  </si>
+  <si>
+    <t>Asociar los documentos al siniestro en el taller asignado.</t>
+  </si>
+  <si>
+    <t>MIX de varios documentos.</t>
+  </si>
+  <si>
+    <t>Son cargados por los liquidadores</t>
+  </si>
+  <si>
+    <t>Consulta e insercion</t>
+  </si>
+  <si>
+    <t>Asegurado / Conductor</t>
+  </si>
+  <si>
+    <t>Daño, Robo con hallazgo, Robo con hallazgo cliente, Indemnizacion y Tercero</t>
+  </si>
+  <si>
+    <t>Subida y consulta de repuestos</t>
+  </si>
+  <si>
+    <t>Son cargados por el liquidador para su revisión en la web por un analista</t>
+  </si>
+  <si>
+    <t>Solo consume sin documenttype(solo envia itemtype)</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>Comodin(cuando no aparece el tipo doc a solicitar)</t>
+  </si>
+  <si>
+    <t>insercion / Consulta</t>
+  </si>
+  <si>
+    <t>MIX de varios docuemntos</t>
+  </si>
+  <si>
+    <t>Robo con hallazgo, PT robo con hallazgo, Robo con hallazgo cliente</t>
+  </si>
+  <si>
+    <t>SI = Robo con hallazgo, PT Robo con hallazgo, PT Daño, Denuncio Robo.
+No = Daño</t>
+  </si>
+  <si>
+    <t>Presupuesto adjunto o desde la 
+WP</t>
+  </si>
+  <si>
+    <t>Lo usaba Portal de egresos, a partir de Enero 2026, lo usara el portal Web Liquidacion.</t>
+  </si>
+  <si>
+    <t>Asociar los documentos al siniestro.</t>
+  </si>
+  <si>
+    <t>Comprobante generado por WP, 
+imágenes adjuntas en vehículo disponible y entrega de vehículo</t>
+  </si>
+  <si>
+    <t>Portal de egresos(Manera manual)</t>
+  </si>
+  <si>
+    <t>Asociar los documentos al siniestro, lo sube la persona asegurada para impugnar.</t>
+  </si>
+  <si>
+    <t>Asociar los documentos al siniestro</t>
+  </si>
+  <si>
+    <t>Asociar el documento al siniestro</t>
+  </si>
+  <si>
+    <t>Conductor(validar esto con liquidador)</t>
+  </si>
+  <si>
+    <t>Daño, Robo con hallazgo, PT Daño, PT Robo con hallazgo, PT Robo, Denuncio Robo, Robo con hallazgo cliente, indemnizacion</t>
+  </si>
+  <si>
+    <t>SI = Robo con hallazgo
+NO = Daño</t>
+  </si>
+  <si>
+    <t>SI = Daño, Robo con hallazgo, Robo con hallazgo cliente, indemnizacion, Tercero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardar documentos del taller </t>
+  </si>
+  <si>
+    <t>Taller / Local</t>
+  </si>
+  <si>
+    <t>Ningun sistema lo usa</t>
+  </si>
+  <si>
+    <t>Son cargados por el liquidador 
+para su revisión en la web por un analista</t>
+  </si>
+  <si>
+    <t>Cedula de identidad</t>
+  </si>
+  <si>
+    <t>Solicitar un JsonEjemploICMPoliza para poder ver los nombres de los parametros que se le envian</t>
+  </si>
+  <si>
+    <t>ASEGURADO</t>
+  </si>
+  <si>
+    <t>Son cargados por el liquidador
+ para su revisión en la web por un analista</t>
+  </si>
+  <si>
+    <t>Insercion</t>
+  </si>
+  <si>
+    <t>Autofac informa que se puede cargar al CM.</t>
+  </si>
+  <si>
+    <t>Solo PT</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1424,13 +1756,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1774,20 +2103,23 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C218" dT="2025-09-22T18:25:50.54" personId="{583E56A3-C745-41A7-A944-3BDFEE895976}" id="{C196B5F9-2C25-44E1-A15F-E5D9B711F44A}">
+  <threadedComment ref="F183" dT="2025-11-27T14:32:50.08" personId="{583E56A3-C745-41A7-A944-3BDFEE895976}" id="{4CF2CEB8-F22D-4D9D-9D67-017CD4F86D13}">
+    <text>Ver cuando es que se esta usando este document type pero con el item type siniestro</text>
+  </threadedComment>
+  <threadedComment ref="C217" dT="2025-09-22T18:25:50.54" personId="{583E56A3-C745-41A7-A944-3BDFEE895976}" id="{F11DF466-965D-4C85-9C49-EC98F3926762}">
     <text>Make sure if Presupuesto belongs to Siniestro, SistemaSistemaSiniestros or Antecedentes itemtype</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF30A633-BB9C-446B-8859-8FC2EAB34302}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB855D4-DC12-4332-A466-A86834345083}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G249"/>
+  <dimension ref="A1:O248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F254" sqref="F254"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,12 +2128,20 @@
     <col min="2" max="2" width="33.42578125" style="7" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" customWidth="1"/>
-    <col min="6" max="6" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="46.85546875" customWidth="1"/>
+    <col min="8" max="8" width="94.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.7109375" customWidth="1"/>
+    <col min="13" max="13" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="67.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1815,16 +2155,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1835,11 +2199,23 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1850,11 +2226,26 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1865,11 +2256,23 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1879,11 +2282,26 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="K5" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1894,11 +2312,26 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1909,11 +2342,26 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1924,11 +2372,23 @@
       <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1937,7 +2397,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1948,11 +2408,20 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1962,11 +2431,29 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" t="s">
+        <v>213</v>
+      </c>
+      <c r="M11" t="s">
+        <v>219</v>
+      </c>
+      <c r="O11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1978,10 +2465,28 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" t="s">
+        <v>217</v>
+      </c>
+      <c r="H12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="M12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1992,11 +2497,25 @@
       <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -2007,8 +2526,14 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -2018,11 +2543,26 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="K15" t="s">
+        <v>213</v>
+      </c>
+      <c r="M15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -2033,8 +2573,14 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
@@ -2044,11 +2590,26 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" t="s">
+        <v>211</v>
+      </c>
+      <c r="H17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>227</v>
+      </c>
+      <c r="K17" t="s">
+        <v>213</v>
+      </c>
+      <c r="M17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -2059,8 +2620,14 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
@@ -2070,11 +2637,26 @@
       <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K19" t="s">
+        <v>213</v>
+      </c>
+      <c r="M19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -2086,10 +2668,19 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" t="s">
+        <v>224</v>
+      </c>
+      <c r="H20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -2100,8 +2691,14 @@
       <c r="D21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
@@ -2112,11 +2709,23 @@
       <c r="D22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
@@ -2127,11 +2736,26 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" t="s">
+        <v>211</v>
+      </c>
+      <c r="H23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="K23" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
@@ -2140,7 +2764,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
@@ -2152,10 +2776,20 @@
         <v>27</v>
       </c>
       <c r="E25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" t="s">
+        <v>231</v>
+      </c>
+      <c r="H25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
@@ -2164,7 +2798,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
@@ -2175,8 +2809,14 @@
       <c r="D27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -2186,11 +2826,26 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
@@ -2201,8 +2856,14 @@
       <c r="D29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
@@ -2212,11 +2873,26 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" t="s">
+        <v>211</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="K30" t="s">
+        <v>213</v>
+      </c>
+      <c r="M30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -2228,10 +2904,19 @@
         <v>27</v>
       </c>
       <c r="E31" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" t="s">
+        <v>224</v>
+      </c>
+      <c r="H31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
@@ -2242,8 +2927,14 @@
       <c r="D32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
@@ -2254,11 +2945,23 @@
       <c r="D33" t="s">
         <v>20</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" t="s">
+        <v>217</v>
+      </c>
+      <c r="H33" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
@@ -2269,11 +2972,26 @@
       <c r="D34" t="s">
         <v>15</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" t="s">
+        <v>229</v>
+      </c>
+      <c r="H34" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="K34" t="s">
+        <v>213</v>
+      </c>
+      <c r="M34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
@@ -2285,10 +3003,19 @@
         <v>27</v>
       </c>
       <c r="E35" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" t="s">
+        <v>224</v>
+      </c>
+      <c r="H35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
@@ -2299,8 +3026,14 @@
       <c r="D36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
@@ -2311,11 +3044,23 @@
       <c r="D37" t="s">
         <v>20</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" t="s">
+        <v>217</v>
+      </c>
+      <c r="H37" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>10</v>
       </c>
@@ -2324,7 +3069,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>10</v>
       </c>
@@ -2334,11 +3079,26 @@
       <c r="D39" t="s">
         <v>15</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>207</v>
+      </c>
+      <c r="G39" t="s">
+        <v>229</v>
+      </c>
+      <c r="H39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K39" t="s">
+        <v>213</v>
+      </c>
+      <c r="M39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>10</v>
       </c>
@@ -2349,10 +3109,19 @@
         <v>27</v>
       </c>
       <c r="E40" t="s">
+        <v>223</v>
+      </c>
+      <c r="G40" t="s">
+        <v>211</v>
+      </c>
+      <c r="H40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2363,8 +3132,14 @@
       <c r="D41" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
@@ -2375,11 +3150,23 @@
       <c r="D42" t="s">
         <v>52</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" t="s">
+        <v>235</v>
+      </c>
+      <c r="H42" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>9</v>
+      </c>
+      <c r="M42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2390,11 +3177,26 @@
       <c r="D43" t="s">
         <v>53</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" t="s">
+        <v>235</v>
+      </c>
+      <c r="H43" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="M43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>10</v>
       </c>
@@ -2405,11 +3207,23 @@
       <c r="D44" t="s">
         <v>20</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" t="s">
+        <v>217</v>
+      </c>
+      <c r="H44" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>9</v>
+      </c>
+      <c r="M44" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2420,11 +3234,26 @@
       <c r="D45" t="s">
         <v>15</v>
       </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>207</v>
+      </c>
+      <c r="G45" t="s">
+        <v>229</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K45" t="s">
+        <v>213</v>
+      </c>
+      <c r="M45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2435,8 +3264,14 @@
       <c r="D46" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
@@ -2447,11 +3282,23 @@
       <c r="D47" t="s">
         <v>52</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
+        <v>207</v>
+      </c>
+      <c r="G47" t="s">
+        <v>235</v>
+      </c>
+      <c r="H47" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>9</v>
+      </c>
+      <c r="M47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2462,11 +3309,26 @@
       <c r="D48" t="s">
         <v>53</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
+        <v>207</v>
+      </c>
+      <c r="G48" t="s">
+        <v>235</v>
+      </c>
+      <c r="H48" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="M48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2475,7 +3337,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
@@ -2485,11 +3347,26 @@
       <c r="D50" t="s">
         <v>15</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
+        <v>207</v>
+      </c>
+      <c r="G50" t="s">
+        <v>237</v>
+      </c>
+      <c r="H50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J50" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="K50" t="s">
+        <v>213</v>
+      </c>
+      <c r="M50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>10</v>
       </c>
@@ -2500,8 +3377,14 @@
       <c r="D51" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2512,8 +3395,14 @@
       <c r="D52" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F52" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>10</v>
       </c>
@@ -2524,11 +3413,26 @@
       <c r="D53" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E53" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F53" t="s">
+        <v>240</v>
+      </c>
+      <c r="G53" t="s">
+        <v>241</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" t="s">
+        <v>9</v>
+      </c>
+      <c r="M53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2539,11 +3443,26 @@
       <c r="D54" t="s">
         <v>58</v>
       </c>
-      <c r="E54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F54" t="s">
+        <v>207</v>
+      </c>
+      <c r="G54" t="s">
+        <v>217</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" t="s">
+        <v>9</v>
+      </c>
+      <c r="M54" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>10</v>
       </c>
@@ -2554,11 +3473,26 @@
       <c r="D55" t="s">
         <v>58</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F55" t="s">
+        <v>207</v>
+      </c>
+      <c r="G55" t="s">
+        <v>217</v>
+      </c>
+      <c r="H55" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>9</v>
+      </c>
+      <c r="M55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>10</v>
       </c>
@@ -2570,10 +3504,19 @@
         <v>27</v>
       </c>
       <c r="E56" t="s">
+        <v>223</v>
+      </c>
+      <c r="G56" t="s">
+        <v>224</v>
+      </c>
+      <c r="H56" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2584,11 +3527,23 @@
       <c r="D57" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
+        <v>216</v>
+      </c>
+      <c r="G57" t="s">
+        <v>217</v>
+      </c>
+      <c r="H57" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K57" t="s">
+        <v>9</v>
+      </c>
+      <c r="M57" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>10</v>
       </c>
@@ -2600,10 +3555,19 @@
         <v>27</v>
       </c>
       <c r="E58" t="s">
+        <v>244</v>
+      </c>
+      <c r="G58" t="s">
+        <v>224</v>
+      </c>
+      <c r="H58" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2614,11 +3578,17 @@
       <c r="D59" t="s">
         <v>27</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G59" t="s">
+        <v>235</v>
+      </c>
+      <c r="H59" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2629,8 +3599,14 @@
       <c r="D60" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E60" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>10</v>
       </c>
@@ -2640,11 +3616,23 @@
       <c r="D61" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
+        <v>216</v>
+      </c>
+      <c r="G61" t="s">
+        <v>217</v>
+      </c>
+      <c r="H61" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K61" t="s">
+        <v>9</v>
+      </c>
+      <c r="M61" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>10</v>
       </c>
@@ -2656,10 +3644,19 @@
         <v>27</v>
       </c>
       <c r="E62" t="s">
+        <v>223</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H62" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>10</v>
       </c>
@@ -2670,8 +3667,14 @@
       <c r="D63" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E63" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F63" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>10</v>
       </c>
@@ -2682,8 +3685,14 @@
       <c r="D64" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E64" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F64" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>10</v>
       </c>
@@ -2694,11 +3703,23 @@
       <c r="D65" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
+        <v>216</v>
+      </c>
+      <c r="G65" t="s">
+        <v>217</v>
+      </c>
+      <c r="H65" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K65" t="s">
+        <v>9</v>
+      </c>
+      <c r="M65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>10</v>
       </c>
@@ -2709,11 +3730,17 @@
       <c r="D66" t="s">
         <v>27</v>
       </c>
-      <c r="E66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>224</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>10</v>
       </c>
@@ -2724,11 +3751,17 @@
       <c r="D67" t="s">
         <v>27</v>
       </c>
-      <c r="E67" t="s">
+      <c r="G67" t="s">
+        <v>224</v>
+      </c>
+      <c r="H67" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>10</v>
       </c>
@@ -2739,11 +3772,17 @@
       <c r="D68" t="s">
         <v>27</v>
       </c>
-      <c r="E68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>224</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>10</v>
       </c>
@@ -2754,8 +3793,14 @@
       <c r="D69" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>10</v>
       </c>
@@ -2766,11 +3811,23 @@
       <c r="D70" t="s">
         <v>52</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
+        <v>207</v>
+      </c>
+      <c r="G70" t="s">
+        <v>235</v>
+      </c>
+      <c r="H70" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K70" t="s">
+        <v>9</v>
+      </c>
+      <c r="M70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>10</v>
       </c>
@@ -2781,11 +3838,23 @@
       <c r="D71" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
+        <v>216</v>
+      </c>
+      <c r="G71" t="s">
+        <v>217</v>
+      </c>
+      <c r="H71" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K71" t="s">
+        <v>9</v>
+      </c>
+      <c r="M71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>10</v>
       </c>
@@ -2796,8 +3865,14 @@
       <c r="D72" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F72" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>10</v>
       </c>
@@ -2808,11 +3883,26 @@
       <c r="D73" t="s">
         <v>53</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
+        <v>207</v>
+      </c>
+      <c r="G73" t="s">
+        <v>235</v>
+      </c>
+      <c r="H73" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="M73" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>10</v>
       </c>
@@ -2823,11 +3913,23 @@
       <c r="D74" t="s">
         <v>52</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
+        <v>207</v>
+      </c>
+      <c r="G74" t="s">
+        <v>235</v>
+      </c>
+      <c r="H74" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K74" t="s">
+        <v>9</v>
+      </c>
+      <c r="M74" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>10</v>
       </c>
@@ -2838,11 +3940,23 @@
       <c r="D75" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
+        <v>216</v>
+      </c>
+      <c r="G75" t="s">
+        <v>217</v>
+      </c>
+      <c r="H75" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K75" t="s">
+        <v>9</v>
+      </c>
+      <c r="M75" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>10</v>
       </c>
@@ -2853,8 +3967,14 @@
       <c r="D76" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E76" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F76" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>10</v>
       </c>
@@ -2866,10 +3986,25 @@
         <v>77</v>
       </c>
       <c r="E77" t="s">
+        <v>246</v>
+      </c>
+      <c r="F77" t="s">
+        <v>247</v>
+      </c>
+      <c r="G77" t="s">
+        <v>248</v>
+      </c>
+      <c r="H77" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K77" t="s">
+        <v>9</v>
+      </c>
+      <c r="M77" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>10</v>
       </c>
@@ -2880,11 +4015,23 @@
       <c r="D78" t="s">
         <v>52</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
+        <v>207</v>
+      </c>
+      <c r="G78" t="s">
+        <v>235</v>
+      </c>
+      <c r="H78" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K78" t="s">
+        <v>9</v>
+      </c>
+      <c r="M78" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>10</v>
       </c>
@@ -2895,11 +4042,23 @@
       <c r="D79" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G79" t="s">
+        <v>217</v>
+      </c>
+      <c r="H79" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K79" t="s">
+        <v>9</v>
+      </c>
+      <c r="M79" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>10</v>
       </c>
@@ -2909,8 +4068,14 @@
       <c r="D80" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E80" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F80" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>10</v>
       </c>
@@ -2921,11 +4086,23 @@
       <c r="D81" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
+        <v>216</v>
+      </c>
+      <c r="G81" t="s">
+        <v>217</v>
+      </c>
+      <c r="H81" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K81" t="s">
+        <v>9</v>
+      </c>
+      <c r="M81" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>10</v>
       </c>
@@ -2936,11 +4113,26 @@
       <c r="D82" t="s">
         <v>15</v>
       </c>
-      <c r="E82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>207</v>
+      </c>
+      <c r="G82" t="s">
+        <v>229</v>
+      </c>
+      <c r="H82" t="s">
+        <v>9</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="K82" t="s">
+        <v>213</v>
+      </c>
+      <c r="M82" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>10</v>
       </c>
@@ -2951,8 +4143,14 @@
       <c r="D83" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E83" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F83" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>10</v>
       </c>
@@ -2964,10 +4162,25 @@
         <v>80</v>
       </c>
       <c r="E84" t="s">
+        <v>250</v>
+      </c>
+      <c r="F84" t="s">
+        <v>207</v>
+      </c>
+      <c r="G84" t="s">
+        <v>224</v>
+      </c>
+      <c r="H84" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K84" t="s">
+        <v>9</v>
+      </c>
+      <c r="M84" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>10</v>
       </c>
@@ -2978,8 +4191,14 @@
       <c r="D85" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E85" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F85" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>10</v>
       </c>
@@ -2989,11 +4208,26 @@
       <c r="D86" t="s">
         <v>15</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
+        <v>207</v>
+      </c>
+      <c r="G86" t="s">
+        <v>229</v>
+      </c>
+      <c r="H86" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J86" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K86" t="s">
+        <v>213</v>
+      </c>
+      <c r="M86" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>10</v>
       </c>
@@ -3004,8 +4238,14 @@
       <c r="D87" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E87" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F87" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>10</v>
       </c>
@@ -3013,8 +4253,12 @@
       <c r="C88" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>251</v>
+      </c>
+      <c r="G88" s="6"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>10</v>
       </c>
@@ -3024,11 +4268,23 @@
       <c r="D89" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
+        <v>216</v>
+      </c>
+      <c r="G89" t="s">
+        <v>217</v>
+      </c>
+      <c r="H89" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K89" t="s">
+        <v>9</v>
+      </c>
+      <c r="M89" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>10</v>
       </c>
@@ -3040,10 +4296,19 @@
         <v>27</v>
       </c>
       <c r="E90" t="s">
+        <v>223</v>
+      </c>
+      <c r="G90" t="s">
+        <v>224</v>
+      </c>
+      <c r="H90" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>10</v>
       </c>
@@ -3054,8 +4319,14 @@
       <c r="D91" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E91" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F91" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>10</v>
       </c>
@@ -3067,10 +4338,25 @@
         <v>86</v>
       </c>
       <c r="E92" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="F92" t="s">
+        <v>216</v>
+      </c>
+      <c r="G92" t="s">
+        <v>224</v>
+      </c>
+      <c r="H92" t="s">
+        <v>9</v>
+      </c>
+      <c r="K92" t="s">
+        <v>18</v>
+      </c>
+      <c r="M92" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>10</v>
       </c>
@@ -3081,11 +4367,23 @@
       <c r="D93" t="s">
         <v>20</v>
       </c>
-      <c r="E93" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>216</v>
+      </c>
+      <c r="G93" t="s">
+        <v>217</v>
+      </c>
+      <c r="H93" t="s">
+        <v>9</v>
+      </c>
+      <c r="K93" t="s">
+        <v>9</v>
+      </c>
+      <c r="M93" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>10</v>
       </c>
@@ -3095,8 +4393,14 @@
       <c r="D94" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E94" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F94" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>10</v>
       </c>
@@ -3107,11 +4411,23 @@
       <c r="D95" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
+        <v>216</v>
+      </c>
+      <c r="G95" t="s">
+        <v>217</v>
+      </c>
+      <c r="H95" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K95" t="s">
+        <v>9</v>
+      </c>
+      <c r="M95" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>10</v>
       </c>
@@ -3122,11 +4438,26 @@
       <c r="D96" t="s">
         <v>15</v>
       </c>
-      <c r="E96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>207</v>
+      </c>
+      <c r="G96" t="s">
+        <v>229</v>
+      </c>
+      <c r="H96" t="s">
+        <v>9</v>
+      </c>
+      <c r="J96" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="K96" t="s">
+        <v>213</v>
+      </c>
+      <c r="M96" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>10</v>
       </c>
@@ -3136,8 +4467,14 @@
       <c r="D97" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E97" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F97" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>10</v>
       </c>
@@ -3148,11 +4485,23 @@
       <c r="D98" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
+        <v>216</v>
+      </c>
+      <c r="G98" t="s">
+        <v>217</v>
+      </c>
+      <c r="H98" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="M98" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>10</v>
       </c>
@@ -3163,11 +4512,26 @@
       <c r="D99" t="s">
         <v>15</v>
       </c>
-      <c r="E99" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>207</v>
+      </c>
+      <c r="G99" t="s">
+        <v>229</v>
+      </c>
+      <c r="H99" t="s">
+        <v>9</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="K99" t="s">
+        <v>213</v>
+      </c>
+      <c r="M99" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>10</v>
       </c>
@@ -3177,8 +4541,14 @@
       <c r="D100" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E100" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F100" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>10</v>
       </c>
@@ -3189,11 +4559,23 @@
       <c r="D101" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
+        <v>216</v>
+      </c>
+      <c r="G101" t="s">
+        <v>217</v>
+      </c>
+      <c r="H101" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K101" t="s">
+        <v>9</v>
+      </c>
+      <c r="M101" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>10</v>
       </c>
@@ -3204,11 +4586,26 @@
       <c r="D102" t="s">
         <v>15</v>
       </c>
-      <c r="E102" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>207</v>
+      </c>
+      <c r="G102" t="s">
+        <v>229</v>
+      </c>
+      <c r="H102" t="s">
+        <v>9</v>
+      </c>
+      <c r="J102" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="K102" t="s">
+        <v>213</v>
+      </c>
+      <c r="M102" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>10</v>
       </c>
@@ -3218,8 +4615,14 @@
       <c r="D103" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E103" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F103" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>10</v>
       </c>
@@ -3230,11 +4633,23 @@
       <c r="D104" t="s">
         <v>20</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
+        <v>216</v>
+      </c>
+      <c r="G104" t="s">
+        <v>217</v>
+      </c>
+      <c r="H104" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K104" t="s">
+        <v>9</v>
+      </c>
+      <c r="M104" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>10</v>
       </c>
@@ -3245,11 +4660,26 @@
       <c r="D105" t="s">
         <v>15</v>
       </c>
-      <c r="E105" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>207</v>
+      </c>
+      <c r="G105" t="s">
+        <v>229</v>
+      </c>
+      <c r="H105" t="s">
+        <v>9</v>
+      </c>
+      <c r="J105" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="K105" t="s">
+        <v>213</v>
+      </c>
+      <c r="M105" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>10</v>
       </c>
@@ -3260,8 +4690,14 @@
       <c r="D106" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E106" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>10</v>
       </c>
@@ -3272,11 +4708,23 @@
       <c r="D107" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
+        <v>216</v>
+      </c>
+      <c r="G107" t="s">
+        <v>217</v>
+      </c>
+      <c r="H107" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K107" t="s">
+        <v>9</v>
+      </c>
+      <c r="M107" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>10</v>
       </c>
@@ -3285,7 +4733,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>10</v>
       </c>
@@ -3295,11 +4743,26 @@
       <c r="D109" t="s">
         <v>15</v>
       </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>207</v>
+      </c>
+      <c r="G109" t="s">
+        <v>237</v>
+      </c>
+      <c r="H109" t="s">
+        <v>9</v>
+      </c>
+      <c r="J109" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="K109" t="s">
+        <v>213</v>
+      </c>
+      <c r="M109" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>10</v>
       </c>
@@ -3310,8 +4773,14 @@
       <c r="D110" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E110" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F110" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>10</v>
       </c>
@@ -3321,11 +4790,26 @@
       <c r="D111" t="s">
         <v>15</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
+        <v>207</v>
+      </c>
+      <c r="G111" t="s">
+        <v>229</v>
+      </c>
+      <c r="H111" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J111" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K111" t="s">
+        <v>213</v>
+      </c>
+      <c r="M111" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>10</v>
       </c>
@@ -3335,11 +4819,23 @@
       <c r="D112" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
+        <v>216</v>
+      </c>
+      <c r="G112" t="s">
+        <v>217</v>
+      </c>
+      <c r="H112" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K112" t="s">
+        <v>9</v>
+      </c>
+      <c r="M112" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>10</v>
       </c>
@@ -3349,11 +4845,23 @@
       <c r="D113" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
+        <v>216</v>
+      </c>
+      <c r="G113" t="s">
+        <v>217</v>
+      </c>
+      <c r="H113" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K113" t="s">
+        <v>9</v>
+      </c>
+      <c r="M113" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>10</v>
       </c>
@@ -3370,8 +4878,29 @@
       <c r="F114" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
+        <v>102</v>
+      </c>
+      <c r="H114" t="s">
+        <v>102</v>
+      </c>
+      <c r="J114" t="s">
+        <v>102</v>
+      </c>
+      <c r="K114" t="s">
+        <v>102</v>
+      </c>
+      <c r="L114" t="s">
+        <v>102</v>
+      </c>
+      <c r="M114" t="s">
+        <v>102</v>
+      </c>
+      <c r="N114" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>10</v>
       </c>
@@ -3383,10 +4912,19 @@
         <v>27</v>
       </c>
       <c r="E115" t="s">
+        <v>223</v>
+      </c>
+      <c r="G115" t="s">
+        <v>254</v>
+      </c>
+      <c r="H115" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>10</v>
       </c>
@@ -3397,8 +4935,14 @@
       <c r="D116" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E116" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F116" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>10</v>
       </c>
@@ -3409,11 +4953,26 @@
       <c r="D117" t="s">
         <v>15</v>
       </c>
-      <c r="E117" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>207</v>
+      </c>
+      <c r="G117" t="s">
+        <v>229</v>
+      </c>
+      <c r="H117" t="s">
+        <v>9</v>
+      </c>
+      <c r="J117" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K117" t="s">
+        <v>213</v>
+      </c>
+      <c r="M117" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>10</v>
       </c>
@@ -3424,8 +4983,14 @@
       <c r="D118" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E118" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F118" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>10</v>
       </c>
@@ -3436,8 +5001,14 @@
       <c r="D119" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E119" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F119" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>10</v>
       </c>
@@ -3449,10 +5020,19 @@
         <v>27</v>
       </c>
       <c r="E120" t="s">
+        <v>223</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H120" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>10</v>
       </c>
@@ -3463,8 +5043,14 @@
       <c r="D121" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E121" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F121" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>10</v>
       </c>
@@ -3475,11 +5061,23 @@
       <c r="D122" t="s">
         <v>20</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
+        <v>216</v>
+      </c>
+      <c r="G122" t="s">
+        <v>217</v>
+      </c>
+      <c r="H122" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K122" t="s">
+        <v>9</v>
+      </c>
+      <c r="M122" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>10</v>
       </c>
@@ -3491,10 +5089,19 @@
         <v>27</v>
       </c>
       <c r="E123" t="s">
+        <v>223</v>
+      </c>
+      <c r="G123" t="s">
+        <v>224</v>
+      </c>
+      <c r="H123" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>10</v>
       </c>
@@ -3505,8 +5112,14 @@
       <c r="D124" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E124" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F124" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>10</v>
       </c>
@@ -3517,11 +5130,26 @@
       <c r="D125" t="s">
         <v>15</v>
       </c>
-      <c r="E125" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F125" t="s">
+        <v>207</v>
+      </c>
+      <c r="G125" t="s">
+        <v>211</v>
+      </c>
+      <c r="H125" t="s">
+        <v>9</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K125" t="s">
+        <v>213</v>
+      </c>
+      <c r="M125" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>10</v>
       </c>
@@ -3533,10 +5161,19 @@
         <v>27</v>
       </c>
       <c r="E126" t="s">
+        <v>223</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H126" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>10</v>
       </c>
@@ -3547,11 +5184,23 @@
       <c r="D127" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
+        <v>216</v>
+      </c>
+      <c r="G127" t="s">
+        <v>217</v>
+      </c>
+      <c r="H127" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K127" t="s">
+        <v>9</v>
+      </c>
+      <c r="M127" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>10</v>
       </c>
@@ -3562,8 +5211,14 @@
       <c r="D128" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E128" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F128" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>10</v>
       </c>
@@ -3574,11 +5229,26 @@
       <c r="D129" t="s">
         <v>15</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
+        <v>207</v>
+      </c>
+      <c r="G129" t="s">
+        <v>211</v>
+      </c>
+      <c r="H129" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J129" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="K129" t="s">
+        <v>213</v>
+      </c>
+      <c r="M129" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>10</v>
       </c>
@@ -3589,11 +5259,26 @@
       <c r="D130" t="s">
         <v>58</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F130" t="s">
+        <v>207</v>
+      </c>
+      <c r="G130" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K130" t="s">
+        <v>9</v>
+      </c>
+      <c r="M130" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>10</v>
       </c>
@@ -3605,10 +5290,25 @@
         <v>25</v>
       </c>
       <c r="E131" t="s">
+        <v>220</v>
+      </c>
+      <c r="F131" t="s">
+        <v>207</v>
+      </c>
+      <c r="G131" t="s">
+        <v>224</v>
+      </c>
+      <c r="H131" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K131" t="s">
+        <v>18</v>
+      </c>
+      <c r="M131" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>10</v>
       </c>
@@ -3620,10 +5320,19 @@
         <v>27</v>
       </c>
       <c r="E132" t="s">
+        <v>223</v>
+      </c>
+      <c r="G132" t="s">
+        <v>224</v>
+      </c>
+      <c r="H132" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>10</v>
       </c>
@@ -3634,11 +5343,26 @@
       <c r="D133" t="s">
         <v>15</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
+        <v>207</v>
+      </c>
+      <c r="G133" t="s">
+        <v>237</v>
+      </c>
+      <c r="H133" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J133" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="K133" t="s">
+        <v>213</v>
+      </c>
+      <c r="M133" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>10</v>
       </c>
@@ -3650,10 +5374,19 @@
         <v>27</v>
       </c>
       <c r="E134" t="s">
+        <v>261</v>
+      </c>
+      <c r="G134" t="s">
+        <v>224</v>
+      </c>
+      <c r="H134" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>10</v>
       </c>
@@ -3664,11 +5397,26 @@
       <c r="D135" t="s">
         <v>58</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
+        <v>207</v>
+      </c>
+      <c r="G135" t="s">
+        <v>217</v>
+      </c>
+      <c r="H135" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K135" t="s">
+        <v>18</v>
+      </c>
+      <c r="M135" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>10</v>
       </c>
@@ -3679,11 +5427,23 @@
       <c r="D136" t="s">
         <v>25</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
+        <v>207</v>
+      </c>
+      <c r="G136" t="s">
+        <v>224</v>
+      </c>
+      <c r="H136" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K136" t="s">
+        <v>18</v>
+      </c>
+      <c r="M136" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>10</v>
       </c>
@@ -3695,10 +5455,19 @@
         <v>27</v>
       </c>
       <c r="E137" t="s">
+        <v>223</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H137" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>10</v>
       </c>
@@ -3709,8 +5478,14 @@
       <c r="D138" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E138" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F138" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>10</v>
       </c>
@@ -3721,11 +5496,23 @@
       <c r="D139" t="s">
         <v>20</v>
       </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>216</v>
+      </c>
+      <c r="G139" t="s">
+        <v>217</v>
+      </c>
+      <c r="H139" t="s">
+        <v>9</v>
+      </c>
+      <c r="K139" t="s">
+        <v>9</v>
+      </c>
+      <c r="M139" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>10</v>
       </c>
@@ -3736,8 +5523,14 @@
       <c r="D140" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E140" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F140" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>10</v>
       </c>
@@ -3749,10 +5542,19 @@
         <v>27</v>
       </c>
       <c r="E141" t="s">
+        <v>264</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H141" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>10</v>
       </c>
@@ -3763,8 +5565,14 @@
       <c r="D142" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E142" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F142" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>10</v>
       </c>
@@ -3775,8 +5583,14 @@
       <c r="D143" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E143" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F143" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>10</v>
       </c>
@@ -3787,11 +5601,26 @@
       <c r="D144" t="s">
         <v>12</v>
       </c>
-      <c r="E144" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E144" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F144" t="s">
+        <v>207</v>
+      </c>
+      <c r="G144" t="s">
+        <v>10</v>
+      </c>
+      <c r="H144" t="s">
+        <v>9</v>
+      </c>
+      <c r="K144" t="s">
+        <v>9</v>
+      </c>
+      <c r="M144" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>10</v>
       </c>
@@ -3802,8 +5631,14 @@
       <c r="D145" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E145" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F145" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>10</v>
       </c>
@@ -3814,11 +5649,23 @@
       <c r="D146" t="s">
         <v>52</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
+        <v>207</v>
+      </c>
+      <c r="G146" t="s">
+        <v>235</v>
+      </c>
+      <c r="H146" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K146" t="s">
+        <v>9</v>
+      </c>
+      <c r="M146" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>10</v>
       </c>
@@ -3829,8 +5676,14 @@
       <c r="D147" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E147" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F147" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>10</v>
       </c>
@@ -3841,11 +5694,26 @@
       <c r="D148" t="s">
         <v>15</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
+        <v>207</v>
+      </c>
+      <c r="G148" t="s">
+        <v>211</v>
+      </c>
+      <c r="H148" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J148" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="K148" t="s">
+        <v>213</v>
+      </c>
+      <c r="M148" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>10</v>
       </c>
@@ -3856,8 +5724,14 @@
       <c r="D149" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E149" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F149" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>10</v>
       </c>
@@ -3868,11 +5742,23 @@
       <c r="D150" t="s">
         <v>7</v>
       </c>
-      <c r="E150" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F150" t="s">
+        <v>216</v>
+      </c>
+      <c r="G150" t="s">
+        <v>208</v>
+      </c>
+      <c r="H150" t="s">
+        <v>9</v>
+      </c>
+      <c r="K150" t="s">
+        <v>9</v>
+      </c>
+      <c r="M150" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>10</v>
       </c>
@@ -3883,11 +5769,23 @@
       <c r="D151" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
+        <v>216</v>
+      </c>
+      <c r="G151" t="s">
+        <v>217</v>
+      </c>
+      <c r="H151" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K151" t="s">
+        <v>9</v>
+      </c>
+      <c r="M151" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>10</v>
       </c>
@@ -3898,11 +5796,26 @@
       <c r="D152" t="s">
         <v>15</v>
       </c>
-      <c r="E152" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F152" t="s">
+        <v>207</v>
+      </c>
+      <c r="G152" t="s">
+        <v>229</v>
+      </c>
+      <c r="H152" t="s">
+        <v>9</v>
+      </c>
+      <c r="J152" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="K152" t="s">
+        <v>213</v>
+      </c>
+      <c r="M152" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>10</v>
       </c>
@@ -3914,10 +5827,19 @@
         <v>27</v>
       </c>
       <c r="E153" t="s">
+        <v>265</v>
+      </c>
+      <c r="G153" t="s">
+        <v>224</v>
+      </c>
+      <c r="H153" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>10</v>
       </c>
@@ -3928,23 +5850,38 @@
       <c r="D154" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E154" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F154" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B155" s="4"/>
       <c r="C155" s="3" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="D155" t="s">
         <v>27</v>
       </c>
-      <c r="E155" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>266</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H155" t="s">
+        <v>36</v>
+      </c>
+      <c r="K155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>10</v>
       </c>
@@ -3955,11 +5892,26 @@
       <c r="D156" t="s">
         <v>15</v>
       </c>
-      <c r="E156" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F156" t="s">
+        <v>207</v>
+      </c>
+      <c r="G156" t="s">
+        <v>229</v>
+      </c>
+      <c r="H156" t="s">
+        <v>9</v>
+      </c>
+      <c r="J156" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K156" t="s">
+        <v>213</v>
+      </c>
+      <c r="M156" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>129</v>
       </c>
@@ -3970,17 +5922,20 @@
       <c r="D157" t="s">
         <v>27</v>
       </c>
-      <c r="E157" s="8" t="s">
+      <c r="G157" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H157" t="s">
+        <v>36</v>
+      </c>
+      <c r="K157" t="s">
+        <v>9</v>
+      </c>
+      <c r="O157" t="s">
         <v>131</v>
       </c>
-      <c r="F157" t="s">
-        <v>9</v>
-      </c>
-      <c r="G157" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>129</v>
       </c>
@@ -3991,14 +5946,17 @@
       <c r="D158" t="s">
         <v>12</v>
       </c>
+      <c r="E158" s="8" t="s">
+        <v>210</v>
+      </c>
       <c r="F158" t="s">
-        <v>9</v>
-      </c>
-      <c r="G158" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="O158" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>129</v>
       </c>
@@ -4009,14 +5967,23 @@
       <c r="D159" t="s">
         <v>52</v>
       </c>
-      <c r="E159" t="s">
-        <v>9</v>
-      </c>
       <c r="F159" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="G159" t="s">
+        <v>235</v>
+      </c>
+      <c r="H159" t="s">
+        <v>9</v>
+      </c>
+      <c r="K159" t="s">
+        <v>9</v>
+      </c>
+      <c r="M159" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>129</v>
       </c>
@@ -4027,1231 +5994,2096 @@
       <c r="D160" t="s">
         <v>53</v>
       </c>
-      <c r="E160" t="s">
-        <v>9</v>
-      </c>
       <c r="F160" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="G160" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="H160" t="s">
+        <v>9</v>
+      </c>
+      <c r="K160" t="s">
+        <v>9</v>
+      </c>
+      <c r="L160" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="M160" t="s">
+        <v>209</v>
+      </c>
+      <c r="O160" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B161" s="14"/>
-      <c r="C161" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D161" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G161" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="4"/>
+      <c r="C161" t="s">
+        <v>132</v>
+      </c>
+      <c r="D161" t="s">
+        <v>52</v>
+      </c>
+      <c r="F161" t="s">
+        <v>207</v>
+      </c>
+      <c r="G161" t="s">
+        <v>235</v>
+      </c>
+      <c r="H161" t="s">
+        <v>9</v>
+      </c>
+      <c r="K161" t="s">
+        <v>9</v>
+      </c>
+      <c r="M161" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B162" s="4"/>
-      <c r="C162" t="s">
+      <c r="B162" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D162" t="s">
-        <v>52</v>
-      </c>
-      <c r="E162" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F162" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>136</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C163" s="3"/>
       <c r="D163" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F163" t="s">
+        <v>207</v>
+      </c>
+      <c r="G163" t="s">
+        <v>229</v>
+      </c>
+      <c r="H163" t="s">
+        <v>9</v>
+      </c>
+      <c r="J163" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K163" t="s">
+        <v>213</v>
+      </c>
+      <c r="M163" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C164" s="3"/>
+      <c r="B164" s="4"/>
+      <c r="C164" t="s">
+        <v>135</v>
+      </c>
       <c r="D164" t="s">
-        <v>15</v>
-      </c>
-      <c r="E164" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F164" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B165" s="4"/>
       <c r="C165" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D165" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E165" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F165" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D166" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E166" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F166" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B167" s="4"/>
-      <c r="C167" t="s">
-        <v>139</v>
+      <c r="C167" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="D167" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E167" t="s">
+        <v>223</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H167" t="s">
+        <v>36</v>
+      </c>
+      <c r="K167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D168" t="s">
-        <v>27</v>
-      </c>
-      <c r="E168" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F168" t="s">
+        <v>207</v>
+      </c>
+      <c r="G168" t="s">
+        <v>235</v>
+      </c>
+      <c r="H168" t="s">
+        <v>9</v>
+      </c>
+      <c r="K168" t="s">
+        <v>9</v>
+      </c>
+      <c r="L168" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="M168" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D169" t="s">
-        <v>53</v>
-      </c>
-      <c r="E169" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F169" t="s">
+        <v>216</v>
+      </c>
+      <c r="G169" t="s">
+        <v>235</v>
+      </c>
+      <c r="H169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D170" t="s">
-        <v>12</v>
-      </c>
-      <c r="E170" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F170" t="s">
+        <v>207</v>
+      </c>
+      <c r="G170" t="s">
+        <v>235</v>
+      </c>
+      <c r="H170" t="s">
+        <v>9</v>
+      </c>
+      <c r="K170" t="s">
+        <v>9</v>
+      </c>
+      <c r="M170" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B171" s="4"/>
-      <c r="C171" s="3" t="s">
-        <v>140</v>
+      <c r="C171" t="s">
+        <v>139</v>
       </c>
       <c r="D171" t="s">
         <v>52</v>
       </c>
-      <c r="E171" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F171" t="s">
+        <v>207</v>
+      </c>
+      <c r="G171" t="s">
+        <v>235</v>
+      </c>
+      <c r="H171" t="s">
+        <v>9</v>
+      </c>
+      <c r="K171" t="s">
+        <v>9</v>
+      </c>
+      <c r="M171" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B172" s="4"/>
-      <c r="C172" t="s">
-        <v>141</v>
-      </c>
+      <c r="B172" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C172" s="3"/>
       <c r="D172" t="s">
-        <v>52</v>
-      </c>
-      <c r="E172" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F172" t="s">
+        <v>207</v>
+      </c>
+      <c r="G172" t="s">
+        <v>211</v>
+      </c>
+      <c r="H172" t="s">
+        <v>9</v>
+      </c>
+      <c r="J172" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K172" t="s">
+        <v>213</v>
+      </c>
+      <c r="M172" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="4"/>
+      <c r="C173" t="s">
         <v>140</v>
       </c>
-      <c r="C173" s="3"/>
       <c r="D173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E173" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F173" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B174" s="4"/>
-      <c r="C174" t="s">
+      <c r="B174" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174" t="s">
+        <v>216</v>
+      </c>
+      <c r="G174" t="s">
+        <v>208</v>
+      </c>
+      <c r="H174" t="s">
+        <v>9</v>
+      </c>
+      <c r="K174" t="s">
+        <v>9</v>
+      </c>
+      <c r="M174" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D174" t="s">
+      <c r="B175" s="4"/>
+      <c r="C175" t="s">
+        <v>143</v>
+      </c>
+      <c r="D175" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D175" t="s">
-        <v>7</v>
-      </c>
-      <c r="E175" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E175" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F175" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B176" s="4"/>
+      <c r="C176" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B176" s="4"/>
-      <c r="C176" t="s">
-        <v>145</v>
       </c>
       <c r="D176" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E176" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F176" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B177" s="4"/>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="3"/>
+      <c r="D177" t="s">
+        <v>15</v>
+      </c>
+      <c r="F177" t="s">
+        <v>207</v>
+      </c>
+      <c r="G177" t="s">
+        <v>211</v>
+      </c>
+      <c r="H177" t="s">
+        <v>145</v>
+      </c>
+      <c r="J177" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B178" s="4"/>
+      <c r="C178" t="s">
         <v>146</v>
       </c>
-      <c r="D177" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C178" s="3"/>
-      <c r="D178" t="s">
-        <v>15</v>
-      </c>
-      <c r="E178" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B179" s="4"/>
       <c r="C179" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="D179" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F179" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B180" s="4"/>
       <c r="C180" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D180" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E180" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F180" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D181" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E181" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F181" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D182" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E182" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F182" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D183" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E183" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F183" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B184" s="4"/>
       <c r="C184" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D184" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E184" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F184" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B185" s="4"/>
       <c r="C185" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D185" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E185" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B186" s="4"/>
-      <c r="C186" t="s">
-        <v>155</v>
+        <v>142</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="D186" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E186" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C187" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C187" s="3"/>
+      <c r="D187" t="s">
+        <v>15</v>
+      </c>
+      <c r="F187" t="s">
+        <v>207</v>
+      </c>
+      <c r="G187" t="s">
+        <v>229</v>
+      </c>
+      <c r="H187" t="s">
+        <v>9</v>
+      </c>
+      <c r="J187" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="K187" t="s">
+        <v>213</v>
+      </c>
+      <c r="M187" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B188" s="4"/>
+      <c r="C188" t="s">
+        <v>155</v>
+      </c>
+      <c r="D188" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B189" s="4"/>
+      <c r="C189" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D189" t="s">
+        <v>27</v>
+      </c>
+      <c r="E189" t="s">
+        <v>223</v>
+      </c>
+      <c r="G189" t="s">
+        <v>224</v>
+      </c>
+      <c r="H189" t="s">
+        <v>36</v>
+      </c>
+      <c r="K189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B190" s="4"/>
+      <c r="C190" s="15"/>
+      <c r="D190" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C188" s="3"/>
-      <c r="D188" t="s">
-        <v>15</v>
-      </c>
-      <c r="E188" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B189" s="4"/>
-      <c r="C189" t="s">
+      <c r="E190" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B191" s="4"/>
+      <c r="C191" t="s">
         <v>157</v>
       </c>
-      <c r="D189" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B190" s="4"/>
-      <c r="C190" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D190" t="s">
-        <v>27</v>
-      </c>
-      <c r="E190" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B191" s="4"/>
-      <c r="C191" s="16"/>
       <c r="D191" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E191" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B192" s="4"/>
-      <c r="C192" t="s">
+        <v>142</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D192" t="s">
+        <v>15</v>
+      </c>
+      <c r="F192" t="s">
+        <v>207</v>
+      </c>
+      <c r="G192" t="s">
+        <v>229</v>
+      </c>
+      <c r="H192" t="s">
+        <v>9</v>
+      </c>
+      <c r="J192" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="K192" t="s">
+        <v>213</v>
+      </c>
+      <c r="M192" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B193" s="4"/>
+      <c r="C193" t="s">
         <v>159</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D193" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D193" t="s">
-        <v>15</v>
-      </c>
-      <c r="E193" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E193" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D194" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E194" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D195" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E195" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B196" s="4"/>
-      <c r="C196" t="s">
+        <v>142</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+      <c r="F196" t="s">
+        <v>216</v>
+      </c>
+      <c r="G196" t="s">
+        <v>208</v>
+      </c>
+      <c r="H196" t="s">
+        <v>9</v>
+      </c>
+      <c r="K196" t="s">
+        <v>9</v>
+      </c>
+      <c r="M196" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B197" s="4"/>
+      <c r="C197" t="s">
         <v>163</v>
       </c>
-      <c r="D196" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="D197" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="E197" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F197" t="s">
+        <v>207</v>
+      </c>
+      <c r="G197" t="s">
+        <v>272</v>
+      </c>
+      <c r="H197" t="s">
         <v>164</v>
+      </c>
+      <c r="K197" t="s">
+        <v>18</v>
+      </c>
+      <c r="M197" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D198" t="s">
         <v>58</v>
       </c>
-      <c r="E198" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F198" t="s">
+        <v>216</v>
+      </c>
+      <c r="G198" t="s">
+        <v>217</v>
+      </c>
+      <c r="H198" t="s">
+        <v>9</v>
+      </c>
+      <c r="K198" t="s">
+        <v>9</v>
+      </c>
+      <c r="M198" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B199" s="4"/>
-      <c r="C199" t="s">
-        <v>168</v>
-      </c>
       <c r="D199" t="s">
-        <v>58</v>
-      </c>
-      <c r="E199" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F199" t="s">
+        <v>216</v>
+      </c>
+      <c r="G199" t="s">
+        <v>217</v>
+      </c>
+      <c r="H199" t="s">
+        <v>9</v>
+      </c>
+      <c r="K199" t="s">
+        <v>9</v>
+      </c>
+      <c r="M199" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B200" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="D200" t="s">
-        <v>20</v>
-      </c>
-      <c r="E200" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B201" s="4"/>
+      <c r="C201" t="s">
         <v>167</v>
       </c>
-      <c r="B201" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="D201" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E201" t="s">
+        <v>252</v>
+      </c>
+      <c r="F201" t="s">
+        <v>216</v>
+      </c>
+      <c r="G201" t="s">
+        <v>224</v>
+      </c>
+      <c r="H201" t="s">
+        <v>9</v>
+      </c>
+      <c r="K201" t="s">
+        <v>18</v>
+      </c>
+      <c r="M201" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D202" t="s">
-        <v>86</v>
-      </c>
-      <c r="E202" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F202" t="s">
+        <v>216</v>
+      </c>
+      <c r="G202" t="s">
+        <v>217</v>
+      </c>
+      <c r="H202" t="s">
+        <v>16</v>
+      </c>
+      <c r="K202" t="s">
+        <v>9</v>
+      </c>
+      <c r="M202" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B203" s="4"/>
-      <c r="C203" t="s">
-        <v>170</v>
-      </c>
-      <c r="D203" t="s">
+    </row>
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B204" s="4"/>
+      <c r="C204" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D204" t="s">
         <v>58</v>
       </c>
-      <c r="E203" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B204" s="4"/>
-    </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F204" t="s">
+        <v>216</v>
+      </c>
+      <c r="G204" t="s">
+        <v>272</v>
+      </c>
+      <c r="H204" t="s">
+        <v>9</v>
+      </c>
+      <c r="K204" t="s">
+        <v>9</v>
+      </c>
+      <c r="M204" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D205" t="s">
+        <v>169</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F205" t="s">
+        <v>216</v>
+      </c>
+      <c r="G205" t="s">
+        <v>241</v>
+      </c>
+      <c r="H205" t="s">
+        <v>9</v>
+      </c>
+      <c r="K205" t="s">
+        <v>9</v>
+      </c>
+      <c r="M205" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D205" t="s">
+      <c r="B206" s="4"/>
+      <c r="C206" t="s">
+        <v>170</v>
+      </c>
+      <c r="D206" t="s">
         <v>58</v>
       </c>
-      <c r="E205" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B206" s="4"/>
-      <c r="C206" s="3" t="s">
+      <c r="F206" t="s">
+        <v>216</v>
+      </c>
+      <c r="G206" t="s">
+        <v>217</v>
+      </c>
+      <c r="H206" t="s">
+        <v>18</v>
+      </c>
+      <c r="K206" t="s">
+        <v>18</v>
+      </c>
+      <c r="M206" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="D206" t="s">
-        <v>171</v>
-      </c>
-      <c r="E206" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D207" t="s">
         <v>58</v>
       </c>
-      <c r="E207" t="s">
+      <c r="F207" t="s">
+        <v>216</v>
+      </c>
+      <c r="G207" t="s">
+        <v>10</v>
+      </c>
+      <c r="H207" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K207" t="s">
+        <v>9</v>
+      </c>
+      <c r="M207" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D208" t="s">
         <v>58</v>
       </c>
-      <c r="E208" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F208" t="s">
+        <v>173</v>
+      </c>
+      <c r="G208" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B209" s="4"/>
       <c r="C209" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="D209" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F209" t="s">
+        <v>216</v>
+      </c>
+      <c r="G209" t="s">
+        <v>173</v>
+      </c>
+      <c r="H209" t="s">
+        <v>173</v>
+      </c>
+      <c r="J209" t="s">
+        <v>173</v>
+      </c>
+      <c r="K209" t="s">
+        <v>173</v>
+      </c>
+      <c r="L209" t="s">
+        <v>173</v>
+      </c>
+      <c r="M209" t="s">
+        <v>173</v>
+      </c>
+      <c r="N209" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B210" s="4"/>
-      <c r="C210" t="s">
-        <v>103</v>
-      </c>
-      <c r="D210" t="s">
-        <v>58</v>
-      </c>
-      <c r="E210" t="s">
+        <v>165</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F210" t="s">
+        <v>216</v>
+      </c>
+      <c r="G210" t="s">
+        <v>217</v>
+      </c>
+      <c r="H210" t="s">
+        <v>16</v>
+      </c>
+      <c r="K210" t="s">
+        <v>9</v>
+      </c>
+      <c r="M210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B211" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="F210" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E211" t="s">
+      <c r="F211" t="s">
+        <v>216</v>
+      </c>
+      <c r="G211" t="s">
+        <v>217</v>
+      </c>
+      <c r="H211" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K211" t="s">
+        <v>9</v>
+      </c>
+      <c r="M211" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B212" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B213" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D212" s="5" t="s">
+      <c r="D213" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E212" t="s">
+      <c r="F213" t="s">
+        <v>216</v>
+      </c>
+      <c r="G213" t="s">
+        <v>217</v>
+      </c>
+      <c r="H213" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C213" s="7" t="s">
+      <c r="K213" t="s">
+        <v>9</v>
+      </c>
+      <c r="M213" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B214" s="4" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E214" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F214" t="s">
+        <v>216</v>
+      </c>
+      <c r="G214" t="s">
+        <v>217</v>
+      </c>
+      <c r="H214" t="s">
+        <v>9</v>
+      </c>
+      <c r="K214" t="s">
+        <v>9</v>
+      </c>
+      <c r="M214" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E215" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F215" t="s">
+        <v>216</v>
+      </c>
+      <c r="G215" t="s">
+        <v>217</v>
+      </c>
+      <c r="H215" t="s">
+        <v>16</v>
+      </c>
+      <c r="K215" t="s">
+        <v>9</v>
+      </c>
+      <c r="M215" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E216" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D217" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E217" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F216" t="s">
+        <v>216</v>
+      </c>
+      <c r="G216" t="s">
+        <v>208</v>
+      </c>
+      <c r="H216" t="s">
+        <v>9</v>
+      </c>
+      <c r="K216" t="s">
+        <v>9</v>
+      </c>
+      <c r="M216" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B217" s="12"/>
+      <c r="C217" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D217" t="s">
+        <v>25</v>
+      </c>
+      <c r="F217" t="s">
+        <v>216</v>
+      </c>
+      <c r="G217" t="s">
+        <v>217</v>
+      </c>
+      <c r="H217" t="s">
+        <v>18</v>
+      </c>
+      <c r="K217" t="s">
+        <v>9</v>
+      </c>
+      <c r="M217" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B218" s="12"/>
+        <v>179</v>
+      </c>
       <c r="C218" s="6" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D218" t="s">
         <v>25</v>
       </c>
       <c r="E218" t="s">
+        <v>252</v>
+      </c>
+      <c r="F218" t="s">
+        <v>216</v>
+      </c>
+      <c r="G218" t="s">
+        <v>224</v>
+      </c>
+      <c r="H218" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K218" t="s">
+        <v>18</v>
+      </c>
+      <c r="M218" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="D219" t="s">
         <v>25</v>
       </c>
       <c r="E219" t="s">
+        <v>252</v>
+      </c>
+      <c r="F219" t="s">
+        <v>216</v>
+      </c>
+      <c r="G219" t="s">
+        <v>224</v>
+      </c>
+      <c r="H219" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="11" t="s">
+      <c r="K219" t="s">
+        <v>18</v>
+      </c>
+      <c r="M219" t="s">
+        <v>222</v>
+      </c>
+      <c r="O219" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C220" s="6" t="s">
-        <v>130</v>
+      <c r="C220" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="D220" t="s">
-        <v>25</v>
-      </c>
-      <c r="E220" t="s">
+        <v>12</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="L220" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D221" t="s">
+        <v>27</v>
+      </c>
+      <c r="F221" t="s">
+        <v>216</v>
+      </c>
+      <c r="G221" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H221" t="s">
         <v>18</v>
       </c>
-      <c r="F220" t="s">
-        <v>9</v>
-      </c>
-      <c r="G220" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D221" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D222" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="E222" t="s">
+        <v>252</v>
+      </c>
+      <c r="F222" t="s">
+        <v>216</v>
+      </c>
+      <c r="G222" t="s">
+        <v>211</v>
+      </c>
+      <c r="H222" t="s">
+        <v>9</v>
+      </c>
+      <c r="K222" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M222" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D223" t="s">
-        <v>86</v>
-      </c>
-      <c r="E223" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F223" t="s">
+        <v>216</v>
+      </c>
+      <c r="G223" t="s">
+        <v>277</v>
+      </c>
+      <c r="H223" t="s">
+        <v>9</v>
+      </c>
+      <c r="K223" t="s">
+        <v>9</v>
+      </c>
+      <c r="M223" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>184</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C224" s="4"/>
       <c r="D224" t="s">
-        <v>77</v>
-      </c>
-      <c r="E224" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F224" t="s">
+        <v>216</v>
+      </c>
+      <c r="G224" t="s">
+        <v>208</v>
+      </c>
+      <c r="H224" t="s">
+        <v>9</v>
+      </c>
+      <c r="K224" t="s">
+        <v>9</v>
+      </c>
+      <c r="M224" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B225" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C225" s="4"/>
+      <c r="C225" s="10" t="s">
+        <v>182</v>
+      </c>
       <c r="D225" t="s">
-        <v>7</v>
-      </c>
-      <c r="E225" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F225" t="s">
+        <v>240</v>
+      </c>
+      <c r="G225" t="s">
+        <v>241</v>
+      </c>
+      <c r="H225" t="s">
+        <v>9</v>
+      </c>
+      <c r="K225" t="s">
+        <v>9</v>
+      </c>
+      <c r="M225" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D226" t="s">
+        <v>184</v>
+      </c>
+      <c r="E226" t="s">
+        <v>184</v>
+      </c>
+      <c r="F226" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B227" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C226" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D226" t="s">
-        <v>60</v>
-      </c>
-      <c r="E226" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C227" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D227" t="s">
+      <c r="D227" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F227" t="s">
+        <v>216</v>
+      </c>
+      <c r="G227" t="s">
+        <v>217</v>
+      </c>
+      <c r="H227" t="s">
+        <v>9</v>
+      </c>
+      <c r="K227" t="s">
+        <v>9</v>
+      </c>
+      <c r="M227" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B228" s="7" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E228" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F228" t="s">
+        <v>216</v>
+      </c>
+      <c r="G228" t="s">
+        <v>217</v>
+      </c>
+      <c r="H228" t="s">
+        <v>16</v>
+      </c>
+      <c r="K228" t="s">
+        <v>9</v>
+      </c>
+      <c r="M228" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E229" t="s">
+      <c r="F229" t="s">
+        <v>216</v>
+      </c>
+      <c r="G229" t="s">
+        <v>217</v>
+      </c>
+      <c r="H229" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K229" t="s">
+        <v>9</v>
+      </c>
+      <c r="M229" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
+      </c>
+      <c r="B230" s="7">
+        <v>1</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E230" t="s">
+      <c r="F230" t="s">
+        <v>216</v>
+      </c>
+      <c r="G230" t="s">
+        <v>217</v>
+      </c>
+      <c r="H230" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K230" t="s">
+        <v>9</v>
+      </c>
+      <c r="M230" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B231" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E231" t="s">
+      <c r="F231" t="s">
+        <v>216</v>
+      </c>
+      <c r="G231" t="s">
+        <v>217</v>
+      </c>
+      <c r="H231" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K231" t="s">
+        <v>9</v>
+      </c>
+      <c r="M231" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B232" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E232" t="s">
+      <c r="F232" t="s">
+        <v>216</v>
+      </c>
+      <c r="G232" t="s">
+        <v>217</v>
+      </c>
+      <c r="H232" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K232" t="s">
+        <v>9</v>
+      </c>
+      <c r="M232" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B233" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E233" t="s">
+      <c r="F233" t="s">
+        <v>216</v>
+      </c>
+      <c r="G233" t="s">
+        <v>217</v>
+      </c>
+      <c r="H233" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K233" t="s">
+        <v>9</v>
+      </c>
+      <c r="M233" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B234" s="7">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D234" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E234" t="s">
+      <c r="F234" t="s">
+        <v>216</v>
+      </c>
+      <c r="G234" t="s">
+        <v>217</v>
+      </c>
+      <c r="H234" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K234" t="s">
+        <v>9</v>
+      </c>
+      <c r="M234" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B235" s="7">
-        <v>82</v>
+        <v>183</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E235" t="s">
+      <c r="F235" t="s">
+        <v>216</v>
+      </c>
+      <c r="G235" t="s">
+        <v>217</v>
+      </c>
+      <c r="H235" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K235" t="s">
+        <v>9</v>
+      </c>
+      <c r="M235" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D236" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E236" t="s">
+      <c r="F236" t="s">
+        <v>216</v>
+      </c>
+      <c r="G236" t="s">
+        <v>217</v>
+      </c>
+      <c r="H236" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="3" t="s">
-        <v>185</v>
+      <c r="K236" t="s">
+        <v>9</v>
+      </c>
+      <c r="M236" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A237" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D237" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E237" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F237" t="s">
+        <v>216</v>
+      </c>
+      <c r="G237" t="s">
+        <v>217</v>
+      </c>
+      <c r="H237" t="s">
+        <v>9</v>
+      </c>
+      <c r="K237" t="s">
+        <v>9</v>
+      </c>
+      <c r="M237" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E238" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F238" t="s">
+        <v>216</v>
+      </c>
+      <c r="G238" t="s">
+        <v>217</v>
+      </c>
+      <c r="H238" t="s">
+        <v>16</v>
+      </c>
+      <c r="K238" t="s">
+        <v>9</v>
+      </c>
+      <c r="M238" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B239" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D239" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E239" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C239" t="s">
+        <v>190</v>
+      </c>
+      <c r="D239" t="s">
+        <v>12</v>
+      </c>
+      <c r="E239" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F239" t="s">
+        <v>207</v>
+      </c>
+      <c r="G239" t="s">
+        <v>10</v>
+      </c>
+      <c r="H239" t="s">
+        <v>18</v>
+      </c>
+      <c r="K239" t="s">
+        <v>18</v>
+      </c>
+      <c r="M239" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D240" t="s">
-        <v>12</v>
-      </c>
-      <c r="E240" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F240" t="s">
+        <v>207</v>
+      </c>
+      <c r="G240" t="s">
+        <v>208</v>
+      </c>
+      <c r="H240" t="s">
+        <v>9</v>
+      </c>
+      <c r="K240" t="s">
+        <v>9</v>
+      </c>
+      <c r="M240" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D241" t="s">
         <v>7</v>
       </c>
-      <c r="E241" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F241" t="s">
+        <v>207</v>
+      </c>
+      <c r="G241" t="s">
+        <v>208</v>
+      </c>
+      <c r="H241" t="s">
+        <v>9</v>
+      </c>
+      <c r="K241" t="s">
+        <v>9</v>
+      </c>
+      <c r="M241" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C242" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D242" t="s">
         <v>7</v>
       </c>
-      <c r="E242" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F242" t="s">
+        <v>207</v>
+      </c>
+      <c r="G242" t="s">
+        <v>208</v>
+      </c>
+      <c r="H242" t="s">
+        <v>9</v>
+      </c>
+      <c r="K242" t="s">
+        <v>9</v>
+      </c>
+      <c r="M242" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D243" t="s">
         <v>7</v>
       </c>
-      <c r="E243" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F243" t="s">
+        <v>207</v>
+      </c>
+      <c r="G243" t="s">
+        <v>208</v>
+      </c>
+      <c r="H243" t="s">
+        <v>9</v>
+      </c>
+      <c r="K243" t="s">
+        <v>9</v>
+      </c>
+      <c r="M243" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C244" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D244" t="s">
         <v>7</v>
       </c>
-      <c r="E244" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F244" t="s">
+        <v>207</v>
+      </c>
+      <c r="G244" t="s">
+        <v>208</v>
+      </c>
+      <c r="H244" t="s">
+        <v>9</v>
+      </c>
+      <c r="K244" t="s">
+        <v>9</v>
+      </c>
+      <c r="M244" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C245" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D245" t="s">
         <v>7</v>
       </c>
-      <c r="E245" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F245" t="s">
+        <v>207</v>
+      </c>
+      <c r="G245" t="s">
+        <v>208</v>
+      </c>
+      <c r="H245" t="s">
+        <v>9</v>
+      </c>
+      <c r="K245" t="s">
+        <v>9</v>
+      </c>
+      <c r="M245" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C246" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D246" t="s">
         <v>7</v>
       </c>
-      <c r="E246" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F246" t="s">
+        <v>207</v>
+      </c>
+      <c r="G246" t="s">
+        <v>208</v>
+      </c>
+      <c r="H246" t="s">
+        <v>9</v>
+      </c>
+      <c r="K246" t="s">
+        <v>9</v>
+      </c>
+      <c r="M246" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C247" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D247" t="s">
         <v>7</v>
       </c>
-      <c r="E247" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F247" t="s">
+        <v>207</v>
+      </c>
+      <c r="G247" t="s">
+        <v>208</v>
+      </c>
+      <c r="H247" t="s">
+        <v>9</v>
+      </c>
+      <c r="K247" t="s">
+        <v>9</v>
+      </c>
+      <c r="M247" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C248" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="D248" t="s">
         <v>7</v>
       </c>
-      <c r="E248" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C249" t="s">
-        <v>103</v>
-      </c>
-      <c r="D249" t="s">
-        <v>7</v>
-      </c>
-      <c r="E249" t="s">
-        <v>9</v>
+      <c r="F248" t="s">
+        <v>207</v>
+      </c>
+      <c r="G248" t="s">
+        <v>208</v>
+      </c>
+      <c r="H248" t="s">
+        <v>9</v>
+      </c>
+      <c r="K248" t="s">
+        <v>9</v>
+      </c>
+      <c r="M248" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G249" xr:uid="{030E9699-145C-4EC8-B54C-AAF5E31C4F71}">
+  <autoFilter ref="A1:O248" xr:uid="{030E9699-145C-4EC8-B54C-AAF5E31C4F71}">
     <filterColumn colId="2">
-      <filters>
-        <filter val="Cedula de Identidad"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="C189:C190"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/resources/portals.xlsx
+++ b/resources/portals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tecnova\OneDrive\Mine\dependency-document-types\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32A8BB2-4773-4FE1-8249-A21E668B6D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E31F4E-61DA-4BD1-9B4A-4D29AF8D49BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DC58811-3100-4723-8A47-51BC9F49FBED}"/>
   </bookViews>
@@ -774,7 +774,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="282">
   <si>
     <t>ItemType(AS IS)</t>
   </si>
@@ -6012,6 +6012,9 @@
       <c r="M160" t="s">
         <v>209</v>
       </c>
+      <c r="O160" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
